--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.1908807819319</v>
+        <v>13.671071</v>
       </c>
       <c r="H2">
-        <v>10.1908807819319</v>
+        <v>41.013213</v>
       </c>
       <c r="I2">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924315</v>
       </c>
       <c r="J2">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924313</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.28338077352305</v>
+        <v>5.378434333333334</v>
       </c>
       <c r="N2">
-        <v>2.28338077352305</v>
+        <v>16.135303</v>
       </c>
       <c r="O2">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513668</v>
       </c>
       <c r="P2">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513669</v>
       </c>
       <c r="Q2">
-        <v>23.26966124272884</v>
+        <v>73.52895763983767</v>
       </c>
       <c r="R2">
-        <v>23.26966124272884</v>
+        <v>661.7606187585391</v>
       </c>
       <c r="S2">
-        <v>0.02552875683659496</v>
+        <v>0.05256811464169264</v>
       </c>
       <c r="T2">
-        <v>0.02552875683659496</v>
+        <v>0.05256811464169265</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.1908807819319</v>
+        <v>13.671071</v>
       </c>
       <c r="H3">
-        <v>10.1908807819319</v>
+        <v>41.013213</v>
       </c>
       <c r="I3">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924315</v>
       </c>
       <c r="J3">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924313</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.10924208925692</v>
+        <v>2.118986</v>
       </c>
       <c r="N3">
-        <v>2.10924208925692</v>
+        <v>6.356958</v>
       </c>
       <c r="O3">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="P3">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="Q3">
-        <v>21.49503467185024</v>
+        <v>28.968808054006</v>
       </c>
       <c r="R3">
-        <v>21.49503467185024</v>
+        <v>260.719272486054</v>
       </c>
       <c r="S3">
-        <v>0.02358184365504289</v>
+        <v>0.0207106923815701</v>
       </c>
       <c r="T3">
-        <v>0.02358184365504289</v>
+        <v>0.0207106923815701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.1908807819319</v>
+        <v>13.671071</v>
       </c>
       <c r="H4">
-        <v>10.1908807819319</v>
+        <v>41.013213</v>
       </c>
       <c r="I4">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924315</v>
       </c>
       <c r="J4">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924313</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.37689196515168</v>
+        <v>0.3858953333333333</v>
       </c>
       <c r="N4">
-        <v>0.37689196515168</v>
+        <v>1.157686</v>
       </c>
       <c r="O4">
-        <v>0.05557557900997677</v>
+        <v>0.0389157524110696</v>
       </c>
       <c r="P4">
-        <v>0.05557557900997677</v>
+        <v>0.03891575241106961</v>
       </c>
       <c r="Q4">
-        <v>3.840861084528803</v>
+        <v>5.275602500568667</v>
       </c>
       <c r="R4">
-        <v>3.840861084528803</v>
+        <v>47.480422505118</v>
       </c>
       <c r="S4">
-        <v>0.004213744568400841</v>
+        <v>0.003771690582264404</v>
       </c>
       <c r="T4">
-        <v>0.004213744568400841</v>
+        <v>0.003771690582264404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.1908807819319</v>
+        <v>13.671071</v>
       </c>
       <c r="H5">
-        <v>10.1908807819319</v>
+        <v>41.013213</v>
       </c>
       <c r="I5">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924315</v>
       </c>
       <c r="J5">
-        <v>0.07582007499452956</v>
+        <v>0.09691937964924313</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.01209630173416</v>
+        <v>2.032857333333333</v>
       </c>
       <c r="N5">
-        <v>2.01209630173416</v>
+        <v>6.098572</v>
       </c>
       <c r="O5">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269955</v>
       </c>
       <c r="P5">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269956</v>
       </c>
       <c r="Q5">
-        <v>20.5050335327389</v>
+        <v>27.79133693687066</v>
       </c>
       <c r="R5">
-        <v>20.5050335327389</v>
+        <v>250.122032431836</v>
       </c>
       <c r="S5">
-        <v>0.02249572993449087</v>
+        <v>0.01986888204371599</v>
       </c>
       <c r="T5">
-        <v>0.02249572993449087</v>
+        <v>0.01986888204371599</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>91.84072433386331</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H6">
-        <v>91.84072433386331</v>
+        <v>276.135139</v>
       </c>
       <c r="I6">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034064</v>
       </c>
       <c r="J6">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034063</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.28338077352305</v>
+        <v>5.378434333333334</v>
       </c>
       <c r="N6">
-        <v>2.28338077352305</v>
+        <v>16.135303</v>
       </c>
       <c r="O6">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513668</v>
       </c>
       <c r="P6">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513669</v>
       </c>
       <c r="Q6">
-        <v>209.707344170374</v>
+        <v>495.0582374124575</v>
       </c>
       <c r="R6">
-        <v>209.707344170374</v>
+        <v>4455.524136712117</v>
       </c>
       <c r="S6">
-        <v>0.2300664259926198</v>
+        <v>0.3539323691501988</v>
       </c>
       <c r="T6">
-        <v>0.2300664259926198</v>
+        <v>0.3539323691501988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>91.84072433386331</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H7">
-        <v>91.84072433386331</v>
+        <v>276.135139</v>
       </c>
       <c r="I7">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034064</v>
       </c>
       <c r="J7">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034063</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.10924208925692</v>
+        <v>2.118986</v>
       </c>
       <c r="N7">
-        <v>2.10924208925692</v>
+        <v>6.356958</v>
       </c>
       <c r="O7">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="P7">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="Q7">
-        <v>193.7143212728267</v>
+        <v>195.0421645496847</v>
       </c>
       <c r="R7">
-        <v>193.7143212728267</v>
+        <v>1755.379480947162</v>
       </c>
       <c r="S7">
-        <v>0.2125207475929758</v>
+        <v>0.1394416457830578</v>
       </c>
       <c r="T7">
-        <v>0.2125207475929758</v>
+        <v>0.1394416457830578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>91.84072433386331</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H8">
-        <v>91.84072433386331</v>
+        <v>276.135139</v>
       </c>
       <c r="I8">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034064</v>
       </c>
       <c r="J8">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034063</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.37689196515168</v>
+        <v>0.3858953333333333</v>
       </c>
       <c r="N8">
-        <v>0.37689196515168</v>
+        <v>1.157686</v>
       </c>
       <c r="O8">
-        <v>0.05557557900997677</v>
+        <v>0.0389157524110696</v>
       </c>
       <c r="P8">
-        <v>0.05557557900997677</v>
+        <v>0.03891575241106961</v>
       </c>
       <c r="Q8">
-        <v>34.61403107514346</v>
+        <v>35.51975383648377</v>
       </c>
       <c r="R8">
-        <v>34.61403107514346</v>
+        <v>319.677784528354</v>
       </c>
       <c r="S8">
-        <v>0.03797447557290064</v>
+        <v>0.02539416512426305</v>
       </c>
       <c r="T8">
-        <v>0.03797447557290064</v>
+        <v>0.02539416512426305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>91.84072433386331</v>
+        <v>92.04504633333333</v>
       </c>
       <c r="H9">
-        <v>91.84072433386331</v>
+        <v>276.135139</v>
       </c>
       <c r="I9">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034064</v>
       </c>
       <c r="J9">
-        <v>0.6832942858963929</v>
+        <v>0.6525420569034063</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.01209630173416</v>
+        <v>2.032857333333333</v>
       </c>
       <c r="N9">
-        <v>2.01209630173416</v>
+        <v>6.098572</v>
       </c>
       <c r="O9">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269955</v>
       </c>
       <c r="P9">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269956</v>
       </c>
       <c r="Q9">
-        <v>184.7923817807528</v>
+        <v>187.1144474357231</v>
       </c>
       <c r="R9">
-        <v>184.7923817807528</v>
+        <v>1684.030026921508</v>
       </c>
       <c r="S9">
-        <v>0.2027326367378967</v>
+        <v>0.1337738768458867</v>
       </c>
       <c r="T9">
-        <v>0.2027326367378967</v>
+        <v>0.1337738768458867</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>22.7481574929718</v>
+        <v>25.57700433333333</v>
       </c>
       <c r="H10">
-        <v>22.7481574929718</v>
+        <v>76.731013</v>
       </c>
       <c r="I10">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="J10">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.28338077352305</v>
+        <v>5.378434333333334</v>
       </c>
       <c r="N10">
-        <v>2.28338077352305</v>
+        <v>16.135303</v>
       </c>
       <c r="O10">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513668</v>
       </c>
       <c r="P10">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513669</v>
       </c>
       <c r="Q10">
-        <v>51.94270545252611</v>
+        <v>137.5642382502155</v>
       </c>
       <c r="R10">
-        <v>51.94270545252611</v>
+        <v>1238.078144251939</v>
       </c>
       <c r="S10">
-        <v>0.05698547491088916</v>
+        <v>0.09834890741081927</v>
       </c>
       <c r="T10">
-        <v>0.05698547491088916</v>
+        <v>0.09834890741081927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>22.7481574929718</v>
+        <v>25.57700433333333</v>
       </c>
       <c r="H11">
-        <v>22.7481574929718</v>
+        <v>76.731013</v>
       </c>
       <c r="I11">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="J11">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.10924208925692</v>
+        <v>2.118986</v>
       </c>
       <c r="N11">
-        <v>2.10924208925692</v>
+        <v>6.356958</v>
       </c>
       <c r="O11">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="P11">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="Q11">
-        <v>47.9813712372213</v>
+        <v>54.19731410427267</v>
       </c>
       <c r="R11">
-        <v>47.9813712372213</v>
+        <v>487.775826938454</v>
       </c>
       <c r="S11">
-        <v>0.0526395612821465</v>
+        <v>0.03874732775433264</v>
       </c>
       <c r="T11">
-        <v>0.0526395612821465</v>
+        <v>0.03874732775433264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>22.7481574929718</v>
+        <v>25.57700433333333</v>
       </c>
       <c r="H12">
-        <v>22.7481574929718</v>
+        <v>76.731013</v>
       </c>
       <c r="I12">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="J12">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.37689196515168</v>
+        <v>0.3858953333333333</v>
       </c>
       <c r="N12">
-        <v>0.37689196515168</v>
+        <v>1.157686</v>
       </c>
       <c r="O12">
-        <v>0.05557557900997677</v>
+        <v>0.0389157524110696</v>
       </c>
       <c r="P12">
-        <v>0.05557557900997677</v>
+        <v>0.03891575241106961</v>
       </c>
       <c r="Q12">
-        <v>8.573597781106056</v>
+        <v>9.870046612879777</v>
       </c>
       <c r="R12">
-        <v>8.573597781106056</v>
+        <v>88.83041951591801</v>
       </c>
       <c r="S12">
-        <v>0.009405950979927514</v>
+        <v>0.007056400070379942</v>
       </c>
       <c r="T12">
-        <v>0.009405950979927514</v>
+        <v>0.007056400070379943</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>22.7481574929718</v>
+        <v>25.57700433333333</v>
       </c>
       <c r="H13">
-        <v>22.7481574929718</v>
+        <v>76.731013</v>
       </c>
       <c r="I13">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="J13">
-        <v>0.1692461175841098</v>
+        <v>0.1813250324917975</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.01209630173416</v>
+        <v>2.032857333333333</v>
       </c>
       <c r="N13">
-        <v>2.01209630173416</v>
+        <v>6.098572</v>
       </c>
       <c r="O13">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269955</v>
       </c>
       <c r="P13">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269956</v>
       </c>
       <c r="Q13">
-        <v>45.77148356287478</v>
+        <v>51.99440082371511</v>
       </c>
       <c r="R13">
-        <v>45.77148356287478</v>
+        <v>467.949607413436</v>
       </c>
       <c r="S13">
-        <v>0.05021513041114665</v>
+        <v>0.03717239725626564</v>
       </c>
       <c r="T13">
-        <v>0.05021513041114665</v>
+        <v>0.03717239725626564</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.62897785564399</v>
+        <v>9.762991666666666</v>
       </c>
       <c r="H14">
-        <v>9.62897785564399</v>
+        <v>29.288975</v>
       </c>
       <c r="I14">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="J14">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.28338077352305</v>
+        <v>5.378434333333334</v>
       </c>
       <c r="N14">
-        <v>2.28338077352305</v>
+        <v>16.135303</v>
       </c>
       <c r="O14">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513668</v>
       </c>
       <c r="P14">
-        <v>0.3367018146373091</v>
+        <v>0.5423901270513669</v>
       </c>
       <c r="Q14">
-        <v>21.98662290425669</v>
+        <v>52.50960957604723</v>
       </c>
       <c r="R14">
-        <v>21.98662290425669</v>
+        <v>472.586486184425</v>
       </c>
       <c r="S14">
-        <v>0.02412115689720525</v>
+        <v>0.03754073584865614</v>
       </c>
       <c r="T14">
-        <v>0.02412115689720525</v>
+        <v>0.03754073584865614</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.62897785564399</v>
+        <v>9.762991666666666</v>
       </c>
       <c r="H15">
-        <v>9.62897785564399</v>
+        <v>29.288975</v>
       </c>
       <c r="I15">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="J15">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.10924208925692</v>
+        <v>2.118986</v>
       </c>
       <c r="N15">
-        <v>2.10924208925692</v>
+        <v>6.356958</v>
       </c>
       <c r="O15">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="P15">
-        <v>0.3110237447898109</v>
+        <v>0.213689898310568</v>
       </c>
       <c r="Q15">
-        <v>20.30984536964715</v>
+        <v>20.68764265978333</v>
       </c>
       <c r="R15">
-        <v>20.30984536964715</v>
+        <v>186.18878393805</v>
       </c>
       <c r="S15">
-        <v>0.02228159225964577</v>
+        <v>0.01479023239160748</v>
       </c>
       <c r="T15">
-        <v>0.02228159225964577</v>
+        <v>0.01479023239160748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.62897785564399</v>
+        <v>9.762991666666666</v>
       </c>
       <c r="H16">
-        <v>9.62897785564399</v>
+        <v>29.288975</v>
       </c>
       <c r="I16">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="J16">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.37689196515168</v>
+        <v>0.3858953333333333</v>
       </c>
       <c r="N16">
-        <v>0.37689196515168</v>
+        <v>1.157686</v>
       </c>
       <c r="O16">
-        <v>0.05557557900997677</v>
+        <v>0.0389157524110696</v>
       </c>
       <c r="P16">
-        <v>0.05557557900997677</v>
+        <v>0.03891575241106961</v>
       </c>
       <c r="Q16">
-        <v>3.629084386415673</v>
+        <v>3.767492923538889</v>
       </c>
       <c r="R16">
-        <v>3.629084386415673</v>
+        <v>33.90743631185</v>
       </c>
       <c r="S16">
-        <v>0.003981407888747784</v>
+        <v>0.002693496634162205</v>
       </c>
       <c r="T16">
-        <v>0.003981407888747784</v>
+        <v>0.002693496634162205</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.62897785564399</v>
+        <v>9.762991666666666</v>
       </c>
       <c r="H17">
-        <v>9.62897785564399</v>
+        <v>29.288975</v>
       </c>
       <c r="I17">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="J17">
-        <v>0.07163952152496787</v>
+        <v>0.06921353095555306</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.01209630173416</v>
+        <v>2.032857333333333</v>
       </c>
       <c r="N17">
-        <v>2.01209630173416</v>
+        <v>6.098572</v>
       </c>
       <c r="O17">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269955</v>
       </c>
       <c r="P17">
-        <v>0.2966988615629033</v>
+        <v>0.2050042222269956</v>
       </c>
       <c r="Q17">
-        <v>19.37443073282139</v>
+        <v>19.84676920485555</v>
       </c>
       <c r="R17">
-        <v>19.37443073282139</v>
+        <v>178.6209228437</v>
       </c>
       <c r="S17">
-        <v>0.02125536447936907</v>
+        <v>0.01418906608112724</v>
       </c>
       <c r="T17">
-        <v>0.02125536447936907</v>
+        <v>0.01418906608112724</v>
       </c>
     </row>
   </sheetData>
